--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,169 +40,169 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>love</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>twitter</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>documentary</t>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>dilemma</t>
   </si>
   <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
     <t>watching</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -566,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
         <v>64</v>
@@ -638,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,16 +656,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,10 +853,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>0.7368421052631579</v>
@@ -906,16 +906,16 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.7241379310344828</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8421052631578947</v>
+        <v>0.8125</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,16 +956,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.72</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8181818181818182</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.6923076923076923</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8125</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6875</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>0.5555555555555556</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.65</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.5454545454545454</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.5185185185185185</v>
+        <v>0.375</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,37 +1285,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6086956521739131</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>14</v>
       </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5957446808510638</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1353,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.2777777777777778</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1406,16 +1406,16 @@
         <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.273224043715847</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="L18">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>798</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1435,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5833333333333334</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1453,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.2372881355932203</v>
+        <v>0.261384335154827</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>45</v>
+        <v>811</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1485,13 +1485,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5797101449275363</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C20">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1535,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5428571428571428</v>
+        <v>0.5625</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1553,13 +1553,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.1846153846153846</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L21">
         <v>12</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1585,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1603,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.180327868852459</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1635,38 +1635,38 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23">
+        <v>0.1830985915492958</v>
+      </c>
+      <c r="L23">
         <v>13</v>
       </c>
-      <c r="D23">
+      <c r="M23">
         <v>13</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>13</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23">
-        <v>0.1789473684210526</v>
-      </c>
-      <c r="L23">
-        <v>17</v>
-      </c>
-      <c r="M23">
-        <v>17</v>
-      </c>
       <c r="N23">
         <v>1</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1685,13 +1685,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4285714285714285</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1703,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.06569343065693431</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1735,13 +1735,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1753,19 +1753,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.0572289156626506</v>
+        <v>0.05873493975903615</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1785,13 +1785,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3846153846153846</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1803,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.0530035335689046</v>
+        <v>0.04814814814814815</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>268</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1835,13 +1835,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3214285714285715</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>300</v>
+        <v>588</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1885,37 +1885,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04026845637583892</v>
+        <v>0.05369127516778523</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F28">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>0.04444444444444445</v>
+        <v>0.03713188220230474</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1927,21 +1927,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>516</v>
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.04058441558441558</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1953,21 +1953,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>591</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.03812316715542522</v>
+        <v>0.02639296187683285</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1979,21 +1979,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.03201024327784891</v>
+        <v>0.02188940092165899</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2005,33 +2005,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K32">
-        <v>0.02419354838709677</v>
-      </c>
-      <c r="L32">
-        <v>42</v>
-      </c>
-      <c r="M32">
-        <v>42</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>1694</v>
+        <v>1698</v>
       </c>
     </row>
   </sheetData>
